--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_29.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_11_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2160551.110968635</v>
+        <v>2158059.161644797</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>162.8296058939009</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.9075077423441</v>
+        <v>235.3137610760658</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>325.1859052051723</v>
       </c>
       <c r="I2" t="n">
-        <v>156.6862937548842</v>
+        <v>156.6862937548844</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.22601572607243</v>
+        <v>62.2260157260727</v>
       </c>
       <c r="S2" t="n">
-        <v>177.2262711387724</v>
+        <v>177.2262711387725</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.9882312337392</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2340345260132</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -747,13 +747,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>61.88158169025353</v>
       </c>
       <c r="G3" t="n">
         <v>136.5970034220424</v>
       </c>
       <c r="H3" t="n">
-        <v>75.64656094026618</v>
+        <v>105.0256931046871</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>53.80849853870449</v>
       </c>
       <c r="S3" t="n">
-        <v>157.8170057799447</v>
+        <v>157.8170057799448</v>
       </c>
       <c r="T3" t="n">
-        <v>197.1557544486214</v>
+        <v>197.1557544486215</v>
       </c>
       <c r="U3" t="n">
         <v>225.8922693348453</v>
@@ -823,16 +823,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>100.3811300440978</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.6627788836668</v>
+        <v>34.09035807820997</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>149.1528076724862</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>213.1097037866937</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>374.3439231673644</v>
+        <v>340.1154693304384</v>
       </c>
       <c r="G5" t="n">
         <v>12.9169039459368</v>
@@ -914,7 +914,7 @@
         <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -984,16 +984,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>119.9750303801817</v>
       </c>
       <c r="G6" t="n">
         <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>50.26760822569003</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I6" t="n">
-        <v>45.44580843958667</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S6" t="n">
         <v>147.9721212459916</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>18.05147856206603</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.3860496764733</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1142,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>199.6452357812554</v>
       </c>
       <c r="Y8" t="n">
-        <v>59.48550737293749</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1297,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>92.87962584274347</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>21.21812042899091</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182139</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>79.05856366754318</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>107.4021082756238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1619,10 +1619,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G16" t="n">
-        <v>120.6889225686074</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2011,10 +2011,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>59.452825597604</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>192.8170508184371</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>59.96838802184498</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2299,10 +2299,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>14.53306611597334</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.47457675531665</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,10 +2530,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2713,7 +2713,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,13 +2722,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,19 +2758,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>137.9792024346624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3193,16 +3193,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358339</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3509,13 +3509,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3721,13 +3721,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.5229983365923</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.93966244919489</v>
+        <v>6.600826611594925</v>
       </c>
     </row>
     <row r="41">
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057045</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
         <v>283.1540821444137</v>
@@ -4034,7 +4034,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4138,13 +4138,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>83.06560892428033</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4195,7 +4195,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609037</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1535.977427775471</v>
+        <v>782.467515344925</v>
       </c>
       <c r="C2" t="n">
-        <v>1535.977427775471</v>
+        <v>782.467515344925</v>
       </c>
       <c r="D2" t="n">
-        <v>1177.71172916872</v>
+        <v>782.467515344925</v>
       </c>
       <c r="E2" t="n">
-        <v>791.9234765704759</v>
+        <v>782.467515344925</v>
       </c>
       <c r="F2" t="n">
-        <v>627.4491271826972</v>
+        <v>775.5220145957215</v>
       </c>
       <c r="G2" t="n">
-        <v>209.3607355237637</v>
+        <v>537.8313468421197</v>
       </c>
       <c r="H2" t="n">
-        <v>209.3607355237637</v>
+        <v>209.3607355237638</v>
       </c>
       <c r="I2" t="n">
-        <v>51.09175193297162</v>
+        <v>51.09175193297152</v>
       </c>
       <c r="J2" t="n">
-        <v>156.4961545710339</v>
+        <v>156.4961545710335</v>
       </c>
       <c r="K2" t="n">
-        <v>435.2148351005019</v>
+        <v>435.214835100501</v>
       </c>
       <c r="L2" t="n">
-        <v>833.2666318311655</v>
+        <v>833.2666318311641</v>
       </c>
       <c r="M2" t="n">
-        <v>1292.782497537226</v>
+        <v>1292.782497537224</v>
       </c>
       <c r="N2" t="n">
-        <v>1745.101812813645</v>
+        <v>1745.101812813642</v>
       </c>
       <c r="O2" t="n">
-        <v>2127.026478132816</v>
+        <v>2127.026478132811</v>
       </c>
       <c r="P2" t="n">
-        <v>2415.31596093577</v>
+        <v>2415.315960935766</v>
       </c>
       <c r="Q2" t="n">
-        <v>2554.587596648581</v>
+        <v>2554.587596648576</v>
       </c>
       <c r="R2" t="n">
-        <v>2491.733035309114</v>
+        <v>2491.733035309109</v>
       </c>
       <c r="S2" t="n">
-        <v>2312.716599815404</v>
+        <v>2312.716599815399</v>
       </c>
       <c r="T2" t="n">
-        <v>2312.716599815404</v>
+        <v>2093.536568266168</v>
       </c>
       <c r="U2" t="n">
-        <v>2312.716599815404</v>
+        <v>1839.76481621969</v>
       </c>
       <c r="V2" t="n">
-        <v>2312.716599815404</v>
+        <v>1508.701928876119</v>
       </c>
       <c r="W2" t="n">
-        <v>2312.716599815404</v>
+        <v>1155.933273606005</v>
       </c>
       <c r="X2" t="n">
-        <v>2312.716599815404</v>
+        <v>782.467515344925</v>
       </c>
       <c r="Y2" t="n">
-        <v>1922.577267839592</v>
+        <v>782.467515344925</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>894.638642603727</v>
+        <v>840.2866238777578</v>
       </c>
       <c r="C3" t="n">
-        <v>720.1856133226</v>
+        <v>665.8335945966309</v>
       </c>
       <c r="D3" t="n">
-        <v>571.2512036613488</v>
+        <v>516.8991849353796</v>
       </c>
       <c r="E3" t="n">
-        <v>412.0137486558933</v>
+        <v>357.6617299299241</v>
       </c>
       <c r="F3" t="n">
-        <v>265.4791906827783</v>
+        <v>295.1550817579508</v>
       </c>
       <c r="G3" t="n">
-        <v>127.5024195494021</v>
+        <v>157.1783106245747</v>
       </c>
       <c r="H3" t="n">
-        <v>51.09175193297162</v>
+        <v>51.09175193297152</v>
       </c>
       <c r="I3" t="n">
-        <v>51.09175193297162</v>
+        <v>51.09175193297152</v>
       </c>
       <c r="J3" t="n">
-        <v>120.1765123687512</v>
+        <v>120.1765123687509</v>
       </c>
       <c r="K3" t="n">
-        <v>364.8742147270548</v>
+        <v>364.8742147270541</v>
       </c>
       <c r="L3" t="n">
-        <v>755.3048694066754</v>
+        <v>755.3048694066742</v>
       </c>
       <c r="M3" t="n">
-        <v>1262.898249633825</v>
+        <v>1105.758028360705</v>
       </c>
       <c r="N3" t="n">
-        <v>1799.633129631802</v>
+        <v>1642.492908358682</v>
       </c>
       <c r="O3" t="n">
-        <v>2067.084785635559</v>
+        <v>2067.084785635554</v>
       </c>
       <c r="P3" t="n">
-        <v>2390.854132153972</v>
+        <v>2390.854132153967</v>
       </c>
       <c r="Q3" t="n">
-        <v>2554.587596648581</v>
+        <v>2554.587596648576</v>
       </c>
       <c r="R3" t="n">
-        <v>2554.587596648581</v>
+        <v>2500.235577922612</v>
       </c>
       <c r="S3" t="n">
-        <v>2395.176479699142</v>
+        <v>2340.824460973173</v>
       </c>
       <c r="T3" t="n">
-        <v>2196.029252983363</v>
+        <v>2141.677234257394</v>
       </c>
       <c r="U3" t="n">
-        <v>1967.855243554226</v>
+        <v>1913.503224828257</v>
       </c>
       <c r="V3" t="n">
-        <v>1732.703135322483</v>
+        <v>1678.351116596514</v>
       </c>
       <c r="W3" t="n">
-        <v>1478.465778594282</v>
+        <v>1424.113759868313</v>
       </c>
       <c r="X3" t="n">
-        <v>1270.614278388749</v>
+        <v>1216.26225966278</v>
       </c>
       <c r="Y3" t="n">
-        <v>1062.853979623795</v>
+        <v>1008.501960897826</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>458.6451575636117</v>
+        <v>85.52645706247654</v>
       </c>
       <c r="C4" t="n">
-        <v>458.6451575636117</v>
+        <v>85.52645706247654</v>
       </c>
       <c r="D4" t="n">
-        <v>458.6451575636117</v>
+        <v>85.52645706247654</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7320639812186</v>
+        <v>85.52645706247654</v>
       </c>
       <c r="F4" t="n">
-        <v>209.3369831285946</v>
+        <v>85.52645706247654</v>
       </c>
       <c r="G4" t="n">
-        <v>209.3369831285946</v>
+        <v>85.52645706247654</v>
       </c>
       <c r="H4" t="n">
-        <v>51.09175193297162</v>
+        <v>51.09175193297152</v>
       </c>
       <c r="I4" t="n">
-        <v>51.09175193297162</v>
+        <v>51.09175193297152</v>
       </c>
       <c r="J4" t="n">
-        <v>51.09175193297162</v>
+        <v>51.09175193297152</v>
       </c>
       <c r="K4" t="n">
-        <v>101.0304570771864</v>
+        <v>101.0304570771861</v>
       </c>
       <c r="L4" t="n">
-        <v>220.4612409703275</v>
+        <v>220.461240970327</v>
       </c>
       <c r="M4" t="n">
-        <v>356.7733802486105</v>
+        <v>356.7733802486096</v>
       </c>
       <c r="N4" t="n">
-        <v>495.2789379493209</v>
+        <v>495.2789379493198</v>
       </c>
       <c r="O4" t="n">
-        <v>607.1949427455653</v>
+        <v>607.1949427455639</v>
       </c>
       <c r="P4" t="n">
-        <v>679.4377367071419</v>
+        <v>679.4377367071403</v>
       </c>
       <c r="Q4" t="n">
-        <v>679.4377367071419</v>
+        <v>679.4377367071403</v>
       </c>
       <c r="R4" t="n">
-        <v>679.4377367071419</v>
+        <v>528.7783350177602</v>
       </c>
       <c r="S4" t="n">
-        <v>679.4377367071419</v>
+        <v>313.5160079604939</v>
       </c>
       <c r="T4" t="n">
-        <v>679.4377367071419</v>
+        <v>313.5160079604939</v>
       </c>
       <c r="U4" t="n">
-        <v>679.4377367071419</v>
+        <v>313.5160079604939</v>
       </c>
       <c r="V4" t="n">
-        <v>679.4377367071419</v>
+        <v>313.5160079604939</v>
       </c>
       <c r="W4" t="n">
-        <v>679.4377367071419</v>
+        <v>313.5160079604939</v>
       </c>
       <c r="X4" t="n">
-        <v>679.4377367071419</v>
+        <v>85.52645706247654</v>
       </c>
       <c r="Y4" t="n">
-        <v>458.6451575636117</v>
+        <v>85.52645706247654</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4541,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>880.335425035081</v>
+        <v>1470.122209845312</v>
       </c>
       <c r="C5" t="n">
-        <v>880.335425035081</v>
+        <v>1470.122209845312</v>
       </c>
       <c r="D5" t="n">
-        <v>880.335425035081</v>
+        <v>1111.856511238561</v>
       </c>
       <c r="E5" t="n">
-        <v>880.335425035081</v>
+        <v>726.068258640317</v>
       </c>
       <c r="F5" t="n">
-        <v>502.2102501185513</v>
+        <v>382.5172795186621</v>
       </c>
       <c r="G5" t="n">
-        <v>489.1628723953828</v>
+        <v>369.4699017954936</v>
       </c>
       <c r="H5" t="n">
-        <v>170.9397571678923</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>72.4810365613864</v>
+        <v>239.8866855817394</v>
       </c>
       <c r="K5" t="n">
-        <v>155.0441911359788</v>
+        <v>375.3064368023349</v>
       </c>
       <c r="L5" t="n">
-        <v>707.8574493821779</v>
+        <v>514.6350926435881</v>
       </c>
       <c r="M5" t="n">
-        <v>1339.57526036549</v>
+        <v>1146.3529036269</v>
       </c>
       <c r="N5" t="n">
-        <v>1659.267837608651</v>
+        <v>1340.687116518882</v>
       </c>
       <c r="O5" t="n">
-        <v>2206.429042375728</v>
+        <v>1887.84832128596</v>
       </c>
       <c r="P5" t="n">
-        <v>2317.163367625255</v>
+        <v>2317.163367625254</v>
       </c>
       <c r="Q5" t="n">
         <v>2562.339328400155</v>
@@ -4595,22 +4595,22 @@
         <v>2406.124290896983</v>
       </c>
       <c r="T5" t="n">
-        <v>2191.324429164695</v>
+        <v>2191.324429164694</v>
       </c>
       <c r="U5" t="n">
-        <v>1937.632725909846</v>
+        <v>2191.324429164694</v>
       </c>
       <c r="V5" t="n">
-        <v>1606.569838566275</v>
+        <v>1860.261541821124</v>
       </c>
       <c r="W5" t="n">
-        <v>1253.801183296161</v>
+        <v>1860.261541821124</v>
       </c>
       <c r="X5" t="n">
-        <v>880.335425035081</v>
+        <v>1860.261541821124</v>
       </c>
       <c r="Y5" t="n">
-        <v>880.335425035081</v>
+        <v>1470.122209845312</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>914.5278549835448</v>
+        <v>893.4159553857312</v>
       </c>
       <c r="C6" t="n">
-        <v>740.0748257024178</v>
+        <v>718.9629261046042</v>
       </c>
       <c r="D6" t="n">
-        <v>591.1404160411665</v>
+        <v>570.0285164433529</v>
       </c>
       <c r="E6" t="n">
-        <v>431.902961035711</v>
+        <v>410.7910614378974</v>
       </c>
       <c r="F6" t="n">
-        <v>285.368403062596</v>
+        <v>289.6041620639766</v>
       </c>
       <c r="G6" t="n">
-        <v>147.927005421818</v>
+        <v>152.1627644231985</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768663</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>169.9060384248988</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="K6" t="n">
-        <v>499.3344427307086</v>
+        <v>118.8546062313601</v>
       </c>
       <c r="L6" t="n">
-        <v>1003.695982596827</v>
+        <v>623.2161460974787</v>
       </c>
       <c r="M6" t="n">
-        <v>1183.193318951432</v>
+        <v>932.0196261855799</v>
       </c>
       <c r="N6" t="n">
-        <v>1381.850060604097</v>
+        <v>1566.198609964618</v>
       </c>
       <c r="O6" t="n">
-        <v>1907.658103858851</v>
+        <v>2115.634618717341</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339688</v>
+        <v>2539.602387198178</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2541.227428802342</v>
       </c>
       <c r="S6" t="n">
-        <v>2412.87253926279</v>
+        <v>2391.760639664977</v>
       </c>
       <c r="T6" t="n">
-        <v>2215.883243422878</v>
+        <v>2194.771343825064</v>
       </c>
       <c r="U6" t="n">
-        <v>1987.744455934044</v>
+        <v>1966.63255633623</v>
       </c>
       <c r="V6" t="n">
-        <v>1752.592347702301</v>
+        <v>1731.480448104488</v>
       </c>
       <c r="W6" t="n">
-        <v>1498.3549909741</v>
+        <v>1477.243091376286</v>
       </c>
       <c r="X6" t="n">
-        <v>1290.503490768567</v>
+        <v>1269.391591170753</v>
       </c>
       <c r="Y6" t="n">
-        <v>1082.743192003613</v>
+        <v>1061.631292405799</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>665.1026499885492</v>
+        <v>219.5972427096985</v>
       </c>
       <c r="C7" t="n">
-        <v>496.1664670606423</v>
+        <v>219.5972427096985</v>
       </c>
       <c r="D7" t="n">
-        <v>346.0498276483066</v>
+        <v>69.48060329736273</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>69.48060329736273</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4747,28 +4747,28 @@
         <v>1051.181468027348</v>
       </c>
       <c r="R7" t="n">
-        <v>1051.181468027348</v>
+        <v>920.7035067467505</v>
       </c>
       <c r="S7" t="n">
-        <v>1051.181468027348</v>
+        <v>920.7035067467505</v>
       </c>
       <c r="T7" t="n">
-        <v>1051.181468027348</v>
+        <v>695.0743100591154</v>
       </c>
       <c r="U7" t="n">
-        <v>1051.181468027348</v>
+        <v>695.0743100591154</v>
       </c>
       <c r="V7" t="n">
-        <v>1051.181468027348</v>
+        <v>440.3898218532286</v>
       </c>
       <c r="W7" t="n">
-        <v>1051.181468027348</v>
+        <v>440.3898218532286</v>
       </c>
       <c r="X7" t="n">
-        <v>1051.181468027348</v>
+        <v>440.3898218532286</v>
       </c>
       <c r="Y7" t="n">
-        <v>846.7511148187889</v>
+        <v>219.5972427096985</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1990.953909778728</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="C8" t="n">
-        <v>1621.991392838317</v>
+        <v>1284.324637962024</v>
       </c>
       <c r="D8" t="n">
-        <v>1263.725694231566</v>
+        <v>926.0589393552734</v>
       </c>
       <c r="E8" t="n">
-        <v>877.9374416333219</v>
+        <v>540.2706867570292</v>
       </c>
       <c r="F8" t="n">
-        <v>466.9515368437143</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4832,22 +4832,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926626</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X8" t="n">
-        <v>2437.640120926626</v>
+        <v>1674.463969937836</v>
       </c>
       <c r="Y8" t="n">
-        <v>2377.55374984285</v>
+        <v>1284.324637962024</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182521</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
-        <v>854.8429682049857</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M9" t="n">
         <v>1218.104987164206</v>
       </c>
       <c r="N9" t="n">
-        <v>1605.390115761151</v>
+        <v>1852.283970943244</v>
       </c>
       <c r="O9" t="n">
-        <v>1937.460550937313</v>
+        <v>2184.354406119406</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2431.537139951703</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2546.853055059249</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,16 +4914,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598622</v>
+        <v>367.0729169938204</v>
       </c>
       <c r="C10" t="n">
-        <v>292.9776840319553</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D10" t="n">
-        <v>292.9776840319553</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>145.0645904495622</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1092.823040066908</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>838.1385518610207</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.344461831649</v>
+        <v>548.7213818240601</v>
       </c>
       <c r="X10" t="n">
-        <v>864.354910933632</v>
+        <v>548.7213818240601</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901019</v>
+        <v>548.7213818240601</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5124,22 +5124,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>983.3556038098237</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>814.4194208819168</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D13" t="n">
-        <v>664.3027814695811</v>
+        <v>545.3854261579737</v>
       </c>
       <c r="E13" t="n">
-        <v>516.389687887188</v>
+        <v>397.4723325755806</v>
       </c>
       <c r="F13" t="n">
-        <v>369.4997403892776</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
-        <v>202.3036411041575</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5267,19 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>352.5519571452614</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327643</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048574</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925216</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>444.7013164925216</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F16" t="n">
-        <v>297.8113689946113</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5504,13 +5504,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5522,10 +5522,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,25 +5589,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5698,25 +5698,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5732,40 +5732,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,25 +5832,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>542.9134462654469</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1140.291933891999</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>1767.889897446606</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,7 +5975,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5984,7 +5984,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>542.9134462654469</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>1140.291933891999</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>1767.889897446606</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6260,13 +6260,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,10 +6449,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,22 +6598,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>407.9027098310023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>407.9027098310023</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6686,10 +6686,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,19 +7072,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0127623330919</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0127623330919</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7157,10 +7157,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>784.5811134804959</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>615.644930552589</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>465.5282911402533</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359455</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614375</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>966.2295783107356</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,31 +7406,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7491,25 +7491,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400699</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>344.917417812163</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>344.917417812163</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>344.917417812163</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
         <v>261.0127623330919</v>
@@ -7816,19 +7816,19 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P46" t="n">
         <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487566</v>
@@ -7843,13 +7843,13 @@
         <v>1433.701365648818</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611857</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138397</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703096</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -8064,13 +8064,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>306.9775675145269</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>235.1348230412584</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>53.39050166262942</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>126.6246104557359</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>130.6122663974711</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>439.9214566933067</v>
       </c>
       <c r="O6" t="n">
-        <v>369.9956874605996</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>240.4465442417443</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>36.58048154589926</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>66.36248435538806</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>32.8926045706001</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23507,10 +23507,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G16" t="n">
-        <v>44.83521572366141</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,10 +23899,10 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>85.96822242532724</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>32.89260457060001</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>86.46557462472418</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>211.1765892730638</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.94647126761458</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,10 +24418,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,19 +24646,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>62.35543909864963</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D37" t="n">
-        <v>65.54986409393068</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>201.6449909028999</v>
+        <v>211.9838267404999</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333268</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,13 +26026,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>62.35543909865092</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26083,7 +26083,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267405006</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>938546.678055452</v>
+        <v>938546.6780554518</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>834034.6482973921</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>834034.6482973921</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>834034.6482973922</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>834034.6482973919</v>
+        <v>834034.6482973922</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>834034.6482973919</v>
+        <v>834034.6482973921</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>834034.6482973922</v>
+        <v>834034.6482973921</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>834034.6482973918</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>834034.6482973921</v>
+        <v>834034.6482973919</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>834034.6482973919</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>834034.6482973917</v>
+        <v>834034.6482973918</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516053</v>
+        <v>595255.2831516048</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516052</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516048</v>
+        <v>595255.2831516054</v>
       </c>
       <c r="E2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="F2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="G2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="H2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="K2" t="n">
-        <v>585181.2847752549</v>
+        <v>585181.2847752547</v>
       </c>
       <c r="L2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="M2" t="n">
         <v>585181.2847752545</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>585181.2847752548</v>
+      </c>
+      <c r="O2" t="n">
+        <v>585181.2847752545</v>
+      </c>
+      <c r="P2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="N2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="O2" t="n">
-        <v>585181.2847752547</v>
-      </c>
-      <c r="P2" t="n">
-        <v>585181.2847752543</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548460.0746161978</v>
+        <v>548460.0746161963</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.9816299258</v>
+        <v>225009.9816299271</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230265</v>
+        <v>291685.0095230266</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245459</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,10 +26387,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167098.1292843803</v>
+        <v>167098.12928438</v>
       </c>
       <c r="K3" t="n">
-        <v>498.7619243598309</v>
+        <v>498.7619243600955</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247452.3619198061</v>
+        <v>247452.3619198065</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.36846171968</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.368461719677</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.36846171969</v>
+        <v>7507.368461719698</v>
       </c>
       <c r="I4" t="n">
+        <v>7507.368461719675</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7507.368461719676</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7507.368461719672</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7507.368461719675</v>
+      </c>
+      <c r="M4" t="n">
         <v>7507.368461719667</v>
       </c>
-      <c r="J4" t="n">
-        <v>7507.368461719678</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7507.36846171967</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7507.368461719677</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7507.368461719689</v>
-      </c>
       <c r="N4" t="n">
-        <v>7507.368461719676</v>
+        <v>7507.3684617197</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719677</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80023.31371946036</v>
+        <v>80023.31371946025</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905218</v>
+        <v>85512.93677905216</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-280680.4671038591</v>
+        <v>-280680.4671038582</v>
       </c>
       <c r="C6" t="n">
-        <v>86419.73008247539</v>
+        <v>86419.73008247357</v>
       </c>
       <c r="D6" t="n">
-        <v>77518.63764198925</v>
+        <v>77518.63764198974</v>
       </c>
       <c r="E6" t="n">
-        <v>-30934.05513491825</v>
+        <v>-30968.79306035365</v>
       </c>
       <c r="F6" t="n">
-        <v>476551.3864896272</v>
+        <v>476516.648564192</v>
       </c>
       <c r="G6" t="n">
-        <v>476551.3864896275</v>
+        <v>476516.6485641917</v>
       </c>
       <c r="H6" t="n">
-        <v>476551.3864896275</v>
+        <v>476516.6485641921</v>
       </c>
       <c r="I6" t="n">
-        <v>476551.3864896276</v>
+        <v>476516.6485641919</v>
       </c>
       <c r="J6" t="n">
-        <v>309453.2572052472</v>
+        <v>309418.5192798121</v>
       </c>
       <c r="K6" t="n">
-        <v>476052.6245652682</v>
+        <v>476017.8866398321</v>
       </c>
       <c r="L6" t="n">
-        <v>476551.3864896277</v>
+        <v>476516.6485641919</v>
       </c>
       <c r="M6" t="n">
-        <v>343944.0927607009</v>
+        <v>343909.3548352654</v>
       </c>
       <c r="N6" t="n">
-        <v>476551.3864896275</v>
+        <v>476516.6485641922</v>
       </c>
       <c r="O6" t="n">
-        <v>476551.3864896278</v>
+        <v>476516.648564192</v>
       </c>
       <c r="P6" t="n">
-        <v>476551.3864896275</v>
+        <v>476516.6485641919</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817398</v>
+        <v>347.0634059817388</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621452</v>
+        <v>638.646899162144</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817398</v>
+        <v>347.0634059817388</v>
       </c>
       <c r="C3" t="n">
-        <v>246.4126943563253</v>
+        <v>246.4126943563263</v>
       </c>
       <c r="D3" t="n">
-        <v>340.588791779474</v>
+        <v>340.5887917794743</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621452</v>
+        <v>638.646899162144</v>
       </c>
       <c r="C4" t="n">
-        <v>1.937932937893606</v>
+        <v>1.937932937894748</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621452</v>
+        <v>638.646899162144</v>
       </c>
       <c r="K4" t="n">
-        <v>1.93793293789372</v>
+        <v>1.937932937894748</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621452</v>
+        <v>638.646899162144</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937893606</v>
+        <v>1.937932937894748</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996095</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>244.0464398478105</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>178.5937466662783</v>
       </c>
       <c r="H2" t="n">
-        <v>325.1859052051722</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.9882312337391</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2340345260132</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27467,16 +27467,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>83.18763070313034</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>29.37913216442092</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>63.69429571031453</v>
+        <v>63.69429571031461</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.80849853870436</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27543,22 +27543,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>45.03991797883349</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3651273148851</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>122.5724208054568</v>
       </c>
       <c r="I4" t="n">
-        <v>136.6293971077895</v>
+        <v>136.6293971077896</v>
       </c>
       <c r="J4" t="n">
-        <v>49.11144063601721</v>
+        <v>49.11144063601733</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.75546894845168</v>
+        <v>33.75546894845183</v>
       </c>
       <c r="R4" t="n">
-        <v>149.1528076724861</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>213.1097037866936</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.2714943330124</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,13 +27619,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>32.53212257434706</v>
+        <v>66.76057641127306</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27704,16 +27704,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>25.09418201320221</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>49.63920985095342</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.90078060183509</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>127.3695694608652</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.19860367562146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
@@ -27913,13 +27913,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>170.0858648972137</v>
       </c>
       <c r="Y8" t="n">
-        <v>326.7524312831161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28017,16 +28017,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>52.54142218018778</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>265.0090336922097</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29986,7 +29986,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -30229,13 +30229,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30441,7 +30441,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>-1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -30709,7 +30709,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30754,7 +30754,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -30888,13 +30888,13 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>-1.131184035330079e-12</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>-1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.395229772790913</v>
+        <v>1.395229772790908</v>
       </c>
       <c r="H2" t="n">
-        <v>14.28889691059494</v>
+        <v>14.28889691059489</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78959581552171</v>
+        <v>53.78959581552155</v>
       </c>
       <c r="J2" t="n">
-        <v>118.4183829284128</v>
+        <v>118.4183829284125</v>
       </c>
       <c r="K2" t="n">
-        <v>177.4784592106522</v>
+        <v>177.4784592106517</v>
       </c>
       <c r="L2" t="n">
-        <v>220.1777223697021</v>
+        <v>220.1777223697015</v>
       </c>
       <c r="M2" t="n">
-        <v>244.9901398415725</v>
+        <v>244.9901398415718</v>
       </c>
       <c r="N2" t="n">
-        <v>248.9543364335147</v>
+        <v>248.954336433514</v>
       </c>
       <c r="O2" t="n">
-        <v>235.0805203803251</v>
+        <v>235.0805203803244</v>
       </c>
       <c r="P2" t="n">
-        <v>200.6357853645494</v>
+        <v>200.6357853645488</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.6691191264748</v>
+        <v>150.6691191264743</v>
       </c>
       <c r="R2" t="n">
-        <v>87.64310221507725</v>
+        <v>87.64310221507698</v>
       </c>
       <c r="S2" t="n">
-        <v>31.79379844747295</v>
+        <v>31.79379844747286</v>
       </c>
       <c r="T2" t="n">
-        <v>6.107618330392223</v>
+        <v>6.107618330392205</v>
       </c>
       <c r="U2" t="n">
-        <v>0.111618381823273</v>
+        <v>0.1116183818232727</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7465137411682705</v>
+        <v>0.7465137411682683</v>
       </c>
       <c r="H3" t="n">
-        <v>7.20975113180935</v>
+        <v>7.209751131809329</v>
       </c>
       <c r="I3" t="n">
-        <v>25.70233714110054</v>
+        <v>25.70233714110047</v>
       </c>
       <c r="J3" t="n">
-        <v>70.52917762502507</v>
+        <v>70.52917762502487</v>
       </c>
       <c r="K3" t="n">
-        <v>120.5455982832992</v>
+        <v>120.5455982832988</v>
       </c>
       <c r="L3" t="n">
-        <v>162.0884331426984</v>
+        <v>162.0884331426979</v>
       </c>
       <c r="M3" t="n">
-        <v>189.1495562600481</v>
+        <v>189.1495562600476</v>
       </c>
       <c r="N3" t="n">
-        <v>194.155782182181</v>
+        <v>194.1557821821804</v>
       </c>
       <c r="O3" t="n">
-        <v>177.6146092857683</v>
+        <v>177.6146092857678</v>
       </c>
       <c r="P3" t="n">
-        <v>142.5513827323867</v>
+        <v>142.5513827323863</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.29182422351468</v>
+        <v>95.2918242235144</v>
       </c>
       <c r="R3" t="n">
-        <v>46.34933561393878</v>
+        <v>46.34933561393864</v>
       </c>
       <c r="S3" t="n">
-        <v>13.86616532389309</v>
+        <v>13.86616532389304</v>
       </c>
       <c r="T3" t="n">
-        <v>3.008974246200177</v>
+        <v>3.008974246200168</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0491127461294915</v>
+        <v>0.04911274612949135</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.625852043573629</v>
+        <v>0.6258520435736272</v>
       </c>
       <c r="H4" t="n">
-        <v>5.564393623772815</v>
+        <v>5.564393623772799</v>
       </c>
       <c r="I4" t="n">
-        <v>18.82107781946878</v>
+        <v>18.82107781946872</v>
       </c>
       <c r="J4" t="n">
-        <v>44.24773948065557</v>
+        <v>44.24773948065544</v>
       </c>
       <c r="K4" t="n">
-        <v>72.7126283351907</v>
+        <v>72.71262833519049</v>
       </c>
       <c r="L4" t="n">
-        <v>93.04713018730119</v>
+        <v>93.04713018730092</v>
       </c>
       <c r="M4" t="n">
-        <v>98.10515261218258</v>
+        <v>98.10515261218229</v>
       </c>
       <c r="N4" t="n">
-        <v>95.77243135886278</v>
+        <v>95.77243135886249</v>
       </c>
       <c r="O4" t="n">
-        <v>88.46134157711626</v>
+        <v>88.46134157711599</v>
       </c>
       <c r="P4" t="n">
-        <v>75.69395988821415</v>
+        <v>75.69395988821394</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.40657430324271</v>
+        <v>52.40657430324255</v>
       </c>
       <c r="R4" t="n">
-        <v>28.14058370468335</v>
+        <v>28.14058370468327</v>
       </c>
       <c r="S4" t="n">
-        <v>10.9068942502786</v>
+        <v>10.90689425027857</v>
       </c>
       <c r="T4" t="n">
-        <v>2.674095095269141</v>
+        <v>2.674095095269134</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03413738419492526</v>
+        <v>0.03413738419492516</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31844,7 +31844,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>399.9031616963283</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,16 +32072,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32552,13 +32552,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32570,10 +32570,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32789,10 +32789,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L24" t="n">
-        <v>592.1874941409601</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33044,10 +33044,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,10 +33263,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33281,10 +33281,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,7 +33737,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,7 +33977,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>162.5000833330458</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33989,10 +33989,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34211,10 +34211,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34226,13 +34226,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>106.4690935738003</v>
+        <v>106.4690935738</v>
       </c>
       <c r="K2" t="n">
-        <v>281.5340207368364</v>
+        <v>281.5340207368358</v>
       </c>
       <c r="L2" t="n">
-        <v>402.0725219501653</v>
+        <v>402.0725219501647</v>
       </c>
       <c r="M2" t="n">
-        <v>464.1574401071323</v>
+        <v>464.1574401071315</v>
       </c>
       <c r="N2" t="n">
-        <v>456.888197248908</v>
+        <v>456.8881972489072</v>
       </c>
       <c r="O2" t="n">
-        <v>385.7824902213837</v>
+        <v>385.782490221383</v>
       </c>
       <c r="P2" t="n">
-        <v>291.2014977807625</v>
+        <v>291.2014977807619</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.67841991193</v>
+        <v>140.6784199119295</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>69.78258629876721</v>
+        <v>69.78258629876701</v>
       </c>
       <c r="K3" t="n">
-        <v>247.1693963215188</v>
+        <v>247.1693963215184</v>
       </c>
       <c r="L3" t="n">
-        <v>394.3743986662834</v>
+        <v>394.3743986662829</v>
       </c>
       <c r="M3" t="n">
-        <v>512.7205860880297</v>
+        <v>353.9930898525562</v>
       </c>
       <c r="N3" t="n">
-        <v>542.1564444424013</v>
+        <v>542.1564444424007</v>
       </c>
       <c r="O3" t="n">
-        <v>270.1531878825822</v>
+        <v>428.8806841180528</v>
       </c>
       <c r="P3" t="n">
-        <v>327.0397439579936</v>
+        <v>327.0397439579932</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.3873378733423</v>
+        <v>165.387337873342</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.44313650930785</v>
+        <v>50.44313650930764</v>
       </c>
       <c r="L4" t="n">
-        <v>120.6371554476173</v>
+        <v>120.6371554476171</v>
       </c>
       <c r="M4" t="n">
-        <v>137.6890295740232</v>
+        <v>137.6890295740229</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9046037380914</v>
+        <v>139.9046037380911</v>
       </c>
       <c r="O4" t="n">
-        <v>113.0464694911559</v>
+        <v>113.0464694911557</v>
       </c>
       <c r="P4" t="n">
-        <v>72.97251915310764</v>
+        <v>72.97251915310743</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K5" t="n">
-        <v>83.39712583292157</v>
+        <v>136.787627495551</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>322.9217951951121</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O5" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
         <v>247.6524856312129</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3104407622271</v>
+        <v>311.9227071596982</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O6" t="n">
-        <v>531.1192356108629</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
         <v>428.2502711927643</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>490.1260733652765</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>15.64270034434938</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35492,7 +35492,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>261.3487819164541</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35899,7 +35899,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
         <v>371.5675334924728</v>
@@ -36200,13 +36200,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>453.6331143610859</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36218,10 +36218,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36437,10 +36437,10 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L24" t="n">
-        <v>453.6331143610859</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36601,7 +36601,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36692,10 +36692,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36844,13 +36844,13 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36929,10 +36929,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37558,13 +37558,13 @@
         <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>23.94570355317166</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37637,10 +37637,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37874,13 +37874,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38184,13 +38184,13 @@
         <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899063</v>
       </c>
       <c r="O46" t="n">
         <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066232</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
         <v>120.4022572998984</v>
